--- a/Attribute_List_Motor.xlsx
+++ b/Attribute_List_Motor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="201">
   <si>
     <t>Path</t>
   </si>
@@ -115,7 +115,7 @@
     <t>https://www.abcinsurance.com/content/dam/abc/india/assets/images/header/logo.png</t>
   </si>
   <si>
-    <t>Physical description of insurer</t>
+    <t>Logo of insurer</t>
   </si>
   <si>
     <t>message.catalog.providers.descriptor.images.size_type</t>
@@ -124,7 +124,7 @@
     <t>xs</t>
   </si>
   <si>
-    <t>Size type of the Image</t>
+    <t>Size type of the image</t>
   </si>
   <si>
     <t>message.catalog.providers.descriptor.short_desc</t>
@@ -151,16 +151,19 @@
     <t>2-Wheeler 3rd Party Motor Insurance</t>
   </si>
   <si>
-    <t>Name of the item</t>
+    <t>Type of insurance for the particular category</t>
   </si>
   <si>
     <t>message.catalog.providers.items.descriptor.short_desc</t>
   </si>
   <si>
-    <t>Short description of item</t>
+    <t>Short description about the insurance type</t>
   </si>
   <si>
     <t>message.catalog.providers.items.descriptor.images.url</t>
+  </si>
+  <si>
+    <t>Information about the insurance type in form of image</t>
   </si>
   <si>
     <t>message.catalog.providers.items.descriptor.images.size_type</t>
@@ -199,19 +202,19 @@
     <t>number</t>
   </si>
   <si>
-    <t>Minimum index value of form</t>
+    <t>Minimum number of pages in a form</t>
   </si>
   <si>
     <t>message.catalog.providers.items.xinput.head.index.cur</t>
   </si>
   <si>
-    <t>Current index value of form</t>
+    <t>Current page to be filled in a form</t>
   </si>
   <si>
     <t>message.catalog.providers.items.xinput.head.index.max</t>
   </si>
   <si>
-    <t>Maximum index value of form</t>
+    <t>Maximum number of pages in a form</t>
   </si>
   <si>
     <t>message.catalog.providers.items.xinput.head.headings</t>
@@ -268,13 +271,13 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Describes the id of the add_ons</t>
+    <t>Describes the unique id of the add_ons items</t>
   </si>
   <si>
     <t>message.catalog.providers.items.add_ons.quantity.available.count</t>
   </si>
   <si>
-    <t>Describes the unique id of the add_ons</t>
+    <t>Describes the available quantity of the add_ons</t>
   </si>
   <si>
     <t xml:space="preserve">message.catalog.providers.items.add_ons.descriptor.name                                                                                                                                                   </t>
@@ -283,7 +286,7 @@
     <t>Consumables Cover</t>
   </si>
   <si>
-    <t>Describes the name of add_on item</t>
+    <t>Describes the name of the add_on item</t>
   </si>
   <si>
     <t xml:space="preserve">message.catalog.providers.items.add_ons.descriptor.code                                                                                                                                                   </t>
@@ -292,7 +295,7 @@
     <t>CONSUMABLES_COVER</t>
   </si>
   <si>
-    <t>Describes the code of add_on item</t>
+    <t>Describes the code of the add_on item</t>
   </si>
   <si>
     <t>message.catalog.providers.items.add_ons.quantity.maximum.count</t>
@@ -446,6 +449,9 @@
     <t>message.order.provider.descriptor.images.size_type</t>
   </si>
   <si>
+    <t>Size type of the Image</t>
+  </si>
+  <si>
     <t xml:space="preserve">message.order.quote.id                                                                                                                                                                      </t>
   </si>
   <si>
@@ -494,9 +500,6 @@
     <t xml:space="preserve">message.order.items.add_ons.quantity.selected.count </t>
   </si>
   <si>
-    <t>Describes the count of available quantity for add_on item</t>
-  </si>
-  <si>
     <t>73ef9742-c17d-4c4e-92e3-b057960863af</t>
   </si>
   <si>
@@ -506,7 +509,7 @@
     <t>joe.adam@abc.org</t>
   </si>
   <si>
-    <t>Email address of the cusotmer</t>
+    <t>Email address of the customer</t>
   </si>
   <si>
     <t>message.order.fulfillments.customer.contact.phone</t>
@@ -515,7 +518,7 @@
     <t>91-9999999999</t>
   </si>
   <si>
-    <t>Phone number of the cusotmer</t>
+    <t>Phone number of the customer</t>
   </si>
   <si>
     <t>message.order.fulfillments.customer.person.name</t>
@@ -525,15 +528,6 @@
   </si>
   <si>
     <t>Name of the customer</t>
-  </si>
-  <si>
-    <t>Vehicle &amp; Nominee Details</t>
-  </si>
-  <si>
-    <t>https://fis.test.bpp.io/form/ekyc?formid=FO7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">message.order.items.add_ons.descriptor.code                                                                                                                                                   </t>
   </si>
   <si>
     <t>message.order.payments.collected_by</t>
@@ -596,6 +590,15 @@
     <t>Describes payment url</t>
   </si>
   <si>
+    <t>Vehicle &amp; Nominee Details</t>
+  </si>
+  <si>
+    <t>https://fis.test.bpp.io/form/ekyc?formid=FO7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message.order.items.add_ons.descriptor.code                                                                                                                                                   </t>
+  </si>
+  <si>
     <t>c844d5f4-29c3-4398-b594-8b4716ef5dbf</t>
   </si>
   <si>
@@ -605,7 +608,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Describes the id of the fulfillment</t>
+    <t>Describes the unique id of the fulfillment</t>
   </si>
   <si>
     <t>message.order.fulfillments.state.descriptor.code</t>
@@ -626,7 +629,7 @@
     <t>Unique id of order</t>
   </si>
   <si>
-    <t>Describes the phone number of the fulfillment</t>
+    <t>Describes the phone number of the customer</t>
   </si>
   <si>
     <t>messgae.update_target</t>
@@ -864,9 +867,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -874,6 +874,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -893,14 +896,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -1303,15 +1306,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -1323,21 +1326,21 @@
         <v>9</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1346,12 +1349,12 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -1362,11 +1365,11 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>50</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1391,7 +1394,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -1402,11 +1405,11 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>52</v>
+      <c r="E7" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -1443,10 +1446,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -1483,10 +1486,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1511,7 +1514,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -1523,15 +1526,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B11" s="47" t="b">
         <v>1</v>
@@ -1543,15 +1546,15 @@
         <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B12" s="47" t="b">
         <v>1</v>
@@ -1563,15 +1566,15 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
@@ -1586,18 +1589,18 @@
         <v>13</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
@@ -1606,18 +1609,18 @@
         <v>12505.0</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -1626,12 +1629,12 @@
         <v>1.80002341E8</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>7</v>
@@ -1643,15 +1646,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>7</v>
@@ -1663,15 +1666,15 @@
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>7</v>
@@ -1683,15 +1686,15 @@
         <v>13</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>7</v>
@@ -1703,15 +1706,15 @@
         <v>13</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -1723,15 +1726,15 @@
         <v>13</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>7</v>
@@ -1742,8 +1745,8 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>129</v>
+      <c r="E21" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>40</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>7</v>
@@ -1782,8 +1785,8 @@
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>131</v>
+      <c r="E22" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>27</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>7</v>
@@ -1825,7 +1828,7 @@
       <c r="E23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="1"/>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>7</v>
@@ -1862,8 +1865,8 @@
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>134</v>
+      <c r="E24" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>37</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -1902,11 +1905,11 @@
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1931,7 +1934,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>7</v>
@@ -1943,10 +1946,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>7</v>
@@ -1986,7 +1989,7 @@
         <v>3634.0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2011,7 +2014,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>7</v>
@@ -2022,11 +2025,11 @@
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>142</v>
+      <c r="E28" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>7</v>
@@ -2063,10 +2066,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -2106,7 +2109,7 @@
         <v>12505.0</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>7</v>
@@ -2142,11 +2145,11 @@
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>142</v>
+      <c r="E31" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2615,7 +2618,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2640,7 +2643,7 @@
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>29</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -2692,15 +2695,15 @@
         <v>13</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -2712,15 +2715,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2732,10 +2735,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2760,13 +2763,13 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>13</v>
@@ -2775,7 +2778,7 @@
         <v>0.0</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2800,13 +2803,13 @@
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>13</v>
@@ -2815,7 +2818,7 @@
         <v>0.0</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2840,13 +2843,13 @@
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>13</v>
@@ -2855,7 +2858,7 @@
         <v>0.0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2880,7 +2883,7 @@
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2892,10 +2895,10 @@
         <v>13</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -2932,10 +2935,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2960,7 +2963,7 @@
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -2972,10 +2975,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3000,13 +3003,13 @@
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>13</v>
@@ -3015,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3040,13 +3043,13 @@
     </row>
     <row r="25">
       <c r="A25" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>13</v>
@@ -3055,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3080,7 +3083,7 @@
     </row>
     <row r="26">
       <c r="A26" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -3092,10 +3095,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="27">
       <c r="A27" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>29</v>
@@ -3132,10 +3135,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3160,13 +3163,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3175,7 +3178,7 @@
         <v>1.0</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3200,7 +3203,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>29</v>
@@ -3212,10 +3215,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>29</v>
@@ -3252,10 +3255,10 @@
         <v>13</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3280,13 +3283,13 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -3295,7 +3298,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -7269,21 +7272,21 @@
         <v>9</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="34" t="s">
         <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -7292,12 +7295,12 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -7309,15 +7312,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="35" t="s">
         <v>98</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
@@ -7329,15 +7332,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -7349,15 +7352,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -10386,7 +10389,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -10415,7 +10418,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -10435,7 +10438,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -10447,10 +10450,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10475,7 +10478,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -10489,8 +10492,8 @@
       <c r="E4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>27</v>
+      <c r="F4" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -10515,7 +10518,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
@@ -10527,10 +10530,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>37</v>
+        <v>112</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -10555,7 +10558,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -10567,10 +10570,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -10595,7 +10598,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -10606,11 +10609,11 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>50</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -10635,7 +10638,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -10646,11 +10649,11 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>52</v>
+      <c r="E8" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -10675,7 +10678,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -10687,10 +10690,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -10715,22 +10718,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>0.0</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -10755,13 +10758,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -10769,8 +10772,8 @@
       <c r="E11" s="30">
         <v>2.0</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>63</v>
+      <c r="F11" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -10795,22 +10798,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>1.0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -10835,7 +10838,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
@@ -10846,11 +10849,11 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>70</v>
+      <c r="E13" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -10875,7 +10878,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>7</v>
@@ -10887,10 +10890,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -10915,13 +10918,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -10930,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -10955,22 +10958,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="36" t="b">
+      <c r="E16" s="35" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -10995,7 +10998,7 @@
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>7</v>
@@ -11007,10 +11010,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -11035,22 +11038,22 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>1.0</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>95</v>
+      <c r="F18" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -11075,7 +11078,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>7</v>
@@ -11087,10 +11090,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>87</v>
+        <v>127</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -11115,7 +11118,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -11127,10 +11130,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>7</v>
@@ -11166,8 +11169,8 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>129</v>
+      <c r="E21" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>40</v>
@@ -11195,7 +11198,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>7</v>
@@ -11206,8 +11209,8 @@
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>131</v>
+      <c r="E22" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>27</v>
@@ -11235,7 +11238,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>7</v>
@@ -11249,7 +11252,7 @@
       <c r="E23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="1"/>
@@ -11275,7 +11278,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>7</v>
@@ -11286,8 +11289,8 @@
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>134</v>
+      <c r="E24" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>37</v>
@@ -11315,7 +11318,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -11326,11 +11329,11 @@
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -11355,7 +11358,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>7</v>
@@ -11367,10 +11370,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -11395,7 +11398,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>7</v>
@@ -11410,7 +11413,7 @@
         <v>3634.0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -11435,7 +11438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>7</v>
@@ -11446,11 +11449,11 @@
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>142</v>
+      <c r="E28" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -11475,7 +11478,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>7</v>
@@ -11487,10 +11490,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -11515,7 +11518,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -11530,7 +11533,7 @@
         <v>12505.0</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -11555,7 +11558,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>7</v>
@@ -11566,11 +11569,11 @@
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>142</v>
+      <c r="E31" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -15522,7 +15525,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -15542,7 +15545,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -15554,15 +15557,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="34" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -15574,21 +15577,21 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -15596,13 +15599,13 @@
       <c r="E5" s="42">
         <v>1.0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
+      <c r="F5" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -15614,15 +15617,15 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -15634,15 +15637,15 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -15654,15 +15657,15 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -15674,15 +15677,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -15694,18 +15697,179 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="29">
+        <v>12505.0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.80002341E8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="E18"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -15749,7 +15913,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -15769,7 +15933,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -15781,15 +15945,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -15801,21 +15965,21 @@
         <v>9</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -15823,13 +15987,13 @@
       <c r="E5" s="5">
         <v>1.0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
+      <c r="F5" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -15840,11 +16004,11 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>50</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -15869,7 +16033,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -15880,11 +16044,11 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>52</v>
+      <c r="E7" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -15909,7 +16073,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -15920,11 +16084,11 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>163</v>
+      <c r="E8" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -15949,22 +16113,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>0.0</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -15989,13 +16153,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -16003,8 +16167,8 @@
       <c r="E10" s="30">
         <v>1.0</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>63</v>
+      <c r="F10" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -16029,22 +16193,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>1.0</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -16069,7 +16233,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>7</v>
@@ -16080,11 +16244,11 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="36" t="s">
-        <v>70</v>
+      <c r="E12" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -16109,7 +16273,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
@@ -16120,11 +16284,11 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>164</v>
+      <c r="E13" s="46" t="s">
+        <v>185</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -16149,13 +16313,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -16164,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -16189,22 +16353,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="36" t="b">
+      <c r="E15" s="35" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -16229,7 +16393,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>7</v>
@@ -16241,15 +16405,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>7</v>
@@ -16261,15 +16425,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="6" t="s">
         <v>156</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>7</v>
@@ -16281,15 +16445,15 @@
         <v>9</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>7</v>
@@ -16301,15 +16465,15 @@
         <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -16324,18 +16488,18 @@
         <v>13</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -16344,18 +16508,18 @@
         <v>12505.0</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -16364,12 +16528,12 @@
         <v>1.80002341E8</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>7</v>
@@ -16381,15 +16545,15 @@
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>7</v>
@@ -16401,15 +16565,15 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -16421,15 +16585,15 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>7</v>
@@ -16441,15 +16605,15 @@
         <v>13</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>7</v>
@@ -16461,15 +16625,15 @@
         <v>13</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>7</v>
@@ -16481,10 +16645,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -16509,7 +16673,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>7</v>
@@ -16524,7 +16688,7 @@
         <v>3634.0</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -16549,7 +16713,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -16560,11 +16724,11 @@
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>142</v>
+      <c r="E30" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -16589,7 +16753,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>7</v>
@@ -16601,10 +16765,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -16629,7 +16793,7 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>7</v>
@@ -16644,7 +16808,7 @@
         <v>12505.0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -16669,7 +16833,7 @@
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>7</v>
@@ -16680,11 +16844,11 @@
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>142</v>
+      <c r="E33" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -20589,7 +20753,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -20609,7 +20773,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -20621,15 +20785,15 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -20641,21 +20805,21 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -20663,13 +20827,13 @@
       <c r="E5" s="42">
         <v>1.0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
+      <c r="F5" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -20681,15 +20845,15 @@
         <v>13</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -20701,15 +20865,15 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -20721,15 +20885,15 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="6" t="s">
         <v>156</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -20741,15 +20905,15 @@
         <v>13</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -20761,15 +20925,15 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>7</v>
@@ -20784,18 +20948,18 @@
         <v>13</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -20804,18 +20968,18 @@
         <v>12505.0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -20824,12 +20988,12 @@
         <v>1.80002341E8</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>7</v>
@@ -20841,15 +21005,15 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
@@ -20861,15 +21025,15 @@
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>7</v>
@@ -20881,15 +21045,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>7</v>
@@ -20901,10 +21065,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -23909,7 +24073,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -23929,7 +24093,7 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>7</v>
@@ -23941,15 +24105,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="6" t="s">
         <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -23961,21 +24125,21 @@
         <v>9</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -23983,13 +24147,13 @@
       <c r="E5" s="5">
         <v>1.0</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>152</v>
+      <c r="F5" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>7</v>
@@ -24000,11 +24164,11 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>50</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -24029,7 +24193,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>7</v>
@@ -24040,11 +24204,11 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>52</v>
+      <c r="E7" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -24069,7 +24233,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>7</v>
@@ -24081,10 +24245,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -24109,7 +24273,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -24121,10 +24285,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -24149,7 +24313,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>7</v>
@@ -24161,15 +24325,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B11" s="47" t="b">
         <v>1</v>
@@ -24181,15 +24345,15 @@
         <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B12" s="47" t="b">
         <v>1</v>
@@ -24201,15 +24365,15 @@
         <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>7</v>
@@ -24224,18 +24388,18 @@
         <v>13</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
@@ -24244,18 +24408,18 @@
         <v>12505.0</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -24264,12 +24428,12 @@
         <v>1.80002341E8</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>7</v>
@@ -24281,15 +24445,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>7</v>
@@ -24301,15 +24465,15 @@
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>7</v>
@@ -24321,15 +24485,15 @@
         <v>13</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>7</v>
@@ -24341,15 +24505,15 @@
         <v>13</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -24361,15 +24525,15 @@
         <v>13</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>7</v>
@@ -24380,8 +24544,8 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>129</v>
+      <c r="E21" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>40</v>
@@ -24409,7 +24573,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>7</v>
@@ -24420,8 +24584,8 @@
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>131</v>
+      <c r="E22" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>27</v>
@@ -24449,7 +24613,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>7</v>
@@ -24463,7 +24627,7 @@
       <c r="E23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="1"/>
@@ -24489,7 +24653,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>7</v>
@@ -24500,8 +24664,8 @@
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>134</v>
+      <c r="E24" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>37</v>
@@ -24529,7 +24693,7 @@
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>7</v>
@@ -24540,11 +24704,11 @@
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -24569,7 +24733,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>7</v>
@@ -24581,10 +24745,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -24609,7 +24773,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>7</v>
@@ -24624,7 +24788,7 @@
         <v>3634.0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -24649,7 +24813,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>7</v>
@@ -24660,11 +24824,11 @@
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="36" t="s">
-        <v>142</v>
+      <c r="E28" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -24689,7 +24853,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>7</v>
@@ -24701,10 +24865,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -24729,7 +24893,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>7</v>
@@ -24744,7 +24908,7 @@
         <v>12505.0</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -24769,7 +24933,7 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>7</v>
@@ -24780,11 +24944,11 @@
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>142</v>
+      <c r="E31" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -24857,7 +25021,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -24872,12 +25036,12 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>29</v>
@@ -24892,12 +25056,12 @@
         <v>9.667788867E9</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>7</v>
@@ -24909,10 +25073,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
